--- a/data/trans_bre/P27_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27_N_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>9,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>53,86%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,93%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>21,28%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>14.18374984170996</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.312092441633565</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.837897539797691</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.804929622362605</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.5303025001560943</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1948327538903859</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.303794148457413</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2306622611594502</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 26,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 13,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 17,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 17,16</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>9,39; 155,27</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 63,33</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 66,34</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,89; 108,63</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.251310989943769</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.73504108960086</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.121531244519184</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.552147659634712</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.06479202234093907</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1192682240120305</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.05550049629824331</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.237060246658191</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>27.17059599173663</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.8902119395384</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.79045350733771</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.824065187619</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.397614306638125</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.5716300582174167</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.680337030356067</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.110383876062594</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>96,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>94,37%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>74,49%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,63%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 18,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 16,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 15,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 9,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>41,83; 185,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>46,72; 164,5</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>32,26; 119,26</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,96; 76,72</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>10.77492033797636</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.23796540052883</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.67617692791572</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.914992867708549</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.8654515216745911</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.010605902614694</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.7591379007582493</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1974067606202704</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-13,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.104399407359242</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.302614458109271</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.687866783147973</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.051636173847151</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.328425783548887</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5146542628148046</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3457253303566779</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1732230549006537</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,78; 8,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 7,53</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 4,95</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 3,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-23,79; 62,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 58,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-23,43; 32,7</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-42,25; 31,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.72460126715424</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.81011263378657</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.93869693921501</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.953714623461224</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>1.693744045090203</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.737191762708482</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.236724983624225</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7596674938383641</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>90,99%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>49,78%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>39,56%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.740398771988847</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.072778721436699</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1620992511888325</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.612000577459858</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.09859724373018049</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1390915740794792</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.009175276882630009</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1548949022160241</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 18,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 13,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 11,31</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>47,66; 146,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 123,34</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 101,29</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.621133724962207</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.162033777625547</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.733479507468175</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.754569730637558</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2861838541140155</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1860435092610213</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2332828188458118</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4347006012840281</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.215122670617401</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.089146394533895</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.080345160001188</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>3.452945878340874</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.575105585090058</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5527555596164163</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.3540253341156723</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2820933740280231</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,94</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>69,59%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>48,25%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>40,16%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>18,86%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7,59; 14,41</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 10,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 10,85</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 6,27</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>44,61; 101,45</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>26,48; 71,95</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>21,44; 61,8</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 42,73</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>8.563894907319627</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.698679349862125</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.881317654687193</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.85325409606015</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.5129335765291136</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4785055101346128</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4134692207194838</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1112993714796658</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.084206101021708</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.250986587733775</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.629476236403328</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.208905001813622</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.2175775693291746</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2336540531635717</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2200974431676112</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1226068774610379</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.9217179178214</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.75274886487552</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.04472362899012</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.921665389367199</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.8982055386958074</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7457434995335861</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6359062594878302</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4018569422144827</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
